--- a/biology/Botanique/Asplenium_australasicum/Asplenium_australasicum.xlsx
+++ b/biology/Botanique/Asplenium_australasicum/Asplenium_australasicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asplenium nidus est une espèce de fougères de la famille des Aspleniaceae. On l'appelle aussi fougère nid d'oiseau.
 </t>
@@ -513,14 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cette espèce se présente comme un bouquet de feuilles acaule, plutôt érigé. A maturité, les individus atteignent 1,5 mètre de haut et 2 mètres de large[1].
-Feuilles
-La feuille est grande, simple, large et allongée, avec une nervure brun foncé. La jeune feuille se déroule au centre de la plante[1].
-Fleurs
-À l'instar des autres fougères, cette espèce ne présente pas de fleurs[1].
-Fruits
-Les fruits sont des spores positionnés en ligne sous les feuilles fertiles[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se présente comme un bouquet de feuilles acaule, plutôt érigé. A maturité, les individus atteignent 1,5 mètre de haut et 2 mètres de large.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asplenium_australasicum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asplenium_australasicum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille est grande, simple, large et allongée, avec une nervure brun foncé. La jeune feuille se déroule au centre de la plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asplenium_australasicum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asplenium_australasicum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar des autres fougères, cette espèce ne présente pas de fleurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asplenium_australasicum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asplenium_australasicum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des spores positionnés en ligne sous les feuilles fertiles.
 </t>
         </is>
       </c>
